--- a/biology/Zoologie/Alsodes_pehuenche/Alsodes_pehuenche.xlsx
+++ b/biology/Zoologie/Alsodes_pehuenche/Alsodes_pehuenche.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alsodes pehuenche est une espèce d'amphibiens de la famille des Alsodidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alsodes pehuenche est une espèce d'amphibiens de la famille des Alsodidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est présente dans la vallée de Pehuenche dans le département de Malargüe de la province de Mendoza en Argentine et dans la partie adjacente du Chili. Elle se rencontre entre 2 000 et 2 500 m d'altitude[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est présente dans la vallée de Pehuenche dans le département de Malargüe de la province de Mendoza en Argentine et dans la partie adjacente du Chili. Elle se rencontre entre 2 000 et 2 500 m d'altitude.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Cei, 1976 : Remarks on some neotropical amphibians of the genus Alsodes from southern Argentina. Atti della Società italiana di scienze naturali e del Museo civico di storia naturale in Milano, vol. 177, no 3/4, p. 159-164.</t>
         </is>
